--- a/biology/Zoologie/Drymarchon_couperi/Drymarchon_couperi.xlsx
+++ b/biology/Zoologie/Drymarchon_couperi/Drymarchon_couperi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Drymarchon couperi ou serpent indigo est une espèce de serpents de la famille des Colubridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Drymarchon couperi ou serpent indigo est une espèce de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique des États-Unis. Elle se rencontre en Floride et dans le Sud de la Géorgie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique des États-Unis. Elle se rencontre en Floride et dans le Sud de la Géorgie.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Drymarchon couperi est considéré comme le plus grand serpent d'Amérique du Nord. Il peut atteindre jusqu'à 260 cm mais en général les mâles mesurent entre 210 et 230 cm et les femelles entre 160 et 180 cm. Son dos est noir-violacé avec des reflets iridescents en pleine lumière.
 Cette espèce est immunisée contre le venin des autres serpents notamment les crotales.
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de James Hamilton Couper (en) (1794-1866)[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de James Hamilton Couper (en) (1794-1866).
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Holbrook, 1838 : North American Herpetology, or Description of the Reptiles Inhabiting the United States, vol. 3, p. 1-122 (texte intégral).</t>
         </is>
